--- a/Homeworks/04-Pandas/2/Activities/07-Par_Pokemon/Unsolved/output/pokemon_rankings.xlsx
+++ b/Homeworks/04-Pandas/2/Activities/07-Par_Pokemon/Unsolved/output/pokemon_rankings.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HP</t>
+  </si>
   <si>
     <t>Attack</t>
   </si>
@@ -22,73 +25,16 @@
     <t>Defense</t>
   </si>
   <si>
-    <t>HP</t>
+    <t>Sp. Atk</t>
   </si>
   <si>
-    <t>Sp. Attack</t>
-  </si>
-  <si>
-    <t>Sp. Defense</t>
+    <t>Sp. Def</t>
   </si>
   <si>
     <t>Speed</t>
   </si>
   <si>
-    <t>Type 1</t>
-  </si>
-  <si>
-    <t>Bug</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
-    <t>Dragon</t>
-  </si>
-  <si>
-    <t>Electric</t>
-  </si>
-  <si>
-    <t>Fairy</t>
-  </si>
-  <si>
-    <t>Fighting</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Flying</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Grass</t>
-  </si>
-  <si>
-    <t>Ground</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>Psychic</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>Water</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -454,191 +400,191 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
+      <c r="A2">
+        <v>56.88405797101449</v>
       </c>
       <c r="B2">
-        <v>70.97</v>
+        <v>70.97101449275362</v>
       </c>
       <c r="C2">
-        <v>70.72</v>
+        <v>70.72463768115942</v>
       </c>
       <c r="D2">
-        <v>56.88</v>
+        <v>53.8695652173913</v>
       </c>
       <c r="E2">
-        <v>53.87</v>
+        <v>64.79710144927536</v>
       </c>
       <c r="F2">
-        <v>64.8</v>
+        <v>61.68115942028985</v>
       </c>
       <c r="G2">
-        <v>61.68</v>
+        <v>378.9275362318841</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+      <c r="A3">
+        <v>66.80645161290323</v>
       </c>
       <c r="B3">
-        <v>88.39</v>
+        <v>88.38709677419355</v>
       </c>
       <c r="C3">
-        <v>70.23</v>
+        <v>70.2258064516129</v>
       </c>
       <c r="D3">
-        <v>66.81</v>
+        <v>74.64516129032258</v>
       </c>
       <c r="E3">
-        <v>74.65000000000001</v>
+        <v>69.51612903225806</v>
       </c>
       <c r="F3">
-        <v>69.52</v>
+        <v>76.16129032258064</v>
       </c>
       <c r="G3">
-        <v>76.16</v>
+        <v>445.741935483871</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
+      <c r="A4">
+        <v>83.3125</v>
       </c>
       <c r="B4">
-        <v>112.12</v>
+        <v>112.125</v>
       </c>
       <c r="C4">
-        <v>86.38</v>
+        <v>86.375</v>
       </c>
       <c r="D4">
-        <v>83.31</v>
+        <v>96.84375</v>
       </c>
       <c r="E4">
-        <v>96.84</v>
+        <v>88.84375</v>
       </c>
       <c r="F4">
-        <v>88.84</v>
+        <v>83.03125</v>
       </c>
       <c r="G4">
-        <v>83.03</v>
+        <v>550.53125</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+      <c r="A5">
+        <v>59.79545454545455</v>
       </c>
       <c r="B5">
-        <v>69.09</v>
+        <v>69.09090909090909</v>
       </c>
       <c r="C5">
-        <v>66.3</v>
+        <v>66.29545454545455</v>
       </c>
       <c r="D5">
-        <v>59.8</v>
+        <v>90.02272727272727</v>
       </c>
       <c r="E5">
-        <v>90.02</v>
+        <v>73.70454545454545</v>
       </c>
       <c r="F5">
-        <v>73.7</v>
+        <v>84.5</v>
       </c>
       <c r="G5">
-        <v>84.5</v>
+        <v>443.4090909090909</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
+      <c r="A6">
+        <v>74.11764705882354</v>
       </c>
       <c r="B6">
-        <v>61.53</v>
+        <v>61.52941176470588</v>
       </c>
       <c r="C6">
-        <v>65.70999999999999</v>
+        <v>65.70588235294117</v>
       </c>
       <c r="D6">
-        <v>74.12</v>
+        <v>78.52941176470588</v>
       </c>
       <c r="E6">
-        <v>78.53</v>
+        <v>84.70588235294117</v>
       </c>
       <c r="F6">
-        <v>84.70999999999999</v>
+        <v>48.58823529411764</v>
       </c>
       <c r="G6">
-        <v>48.59</v>
+        <v>413.1764705882352</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
+      <c r="A7">
+        <v>69.85185185185185</v>
       </c>
       <c r="B7">
-        <v>96.78</v>
+        <v>96.77777777777777</v>
       </c>
       <c r="C7">
-        <v>65.93000000000001</v>
+        <v>65.92592592592592</v>
       </c>
       <c r="D7">
-        <v>69.84999999999999</v>
+        <v>53.11111111111111</v>
       </c>
       <c r="E7">
-        <v>53.11</v>
+        <v>64.70370370370371</v>
       </c>
       <c r="F7">
-        <v>64.7</v>
+        <v>66.07407407407408</v>
       </c>
       <c r="G7">
-        <v>66.06999999999999</v>
+        <v>416.4444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
+      <c r="A8">
+        <v>69.90384615384616</v>
       </c>
       <c r="B8">
-        <v>84.77</v>
+        <v>84.76923076923077</v>
       </c>
       <c r="C8">
-        <v>67.77</v>
+        <v>67.76923076923077</v>
       </c>
       <c r="D8">
-        <v>69.90000000000001</v>
+        <v>88.98076923076923</v>
       </c>
       <c r="E8">
-        <v>88.98</v>
+        <v>72.21153846153847</v>
       </c>
       <c r="F8">
-        <v>72.20999999999999</v>
+        <v>74.44230769230769</v>
       </c>
       <c r="G8">
-        <v>74.44</v>
+        <v>458.076923076923</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
+      <c r="A9">
+        <v>70.75</v>
       </c>
       <c r="B9">
         <v>78.75</v>
@@ -647,246 +593,246 @@
         <v>66.25</v>
       </c>
       <c r="D9">
-        <v>70.75</v>
+        <v>94.25</v>
       </c>
       <c r="E9">
-        <v>94.25</v>
+        <v>72.5</v>
       </c>
       <c r="F9">
-        <v>72.5</v>
+        <v>102.5</v>
       </c>
       <c r="G9">
-        <v>102.5</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
+      <c r="A10">
+        <v>64.4375</v>
       </c>
       <c r="B10">
-        <v>73.78</v>
+        <v>73.78125</v>
       </c>
       <c r="C10">
-        <v>81.19</v>
+        <v>81.1875</v>
       </c>
       <c r="D10">
-        <v>64.44</v>
+        <v>79.34375</v>
       </c>
       <c r="E10">
-        <v>79.34</v>
+        <v>76.46875</v>
       </c>
       <c r="F10">
-        <v>76.47</v>
+        <v>64.34375</v>
       </c>
       <c r="G10">
-        <v>64.34</v>
+        <v>439.5625</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
+      <c r="A11">
+        <v>67.27142857142857</v>
       </c>
       <c r="B11">
-        <v>73.20999999999999</v>
+        <v>73.21428571428571</v>
       </c>
       <c r="C11">
         <v>70.8</v>
       </c>
       <c r="D11">
-        <v>67.27</v>
+        <v>77.5</v>
       </c>
       <c r="E11">
-        <v>77.5</v>
+        <v>70.42857142857143</v>
       </c>
       <c r="F11">
-        <v>70.43000000000001</v>
+        <v>61.92857142857143</v>
       </c>
       <c r="G11">
-        <v>61.93</v>
+        <v>421.1428571428572</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
+      <c r="A12">
+        <v>73.78125</v>
       </c>
       <c r="B12">
         <v>95.75</v>
       </c>
       <c r="C12">
-        <v>84.84</v>
+        <v>84.84375</v>
       </c>
       <c r="D12">
-        <v>73.78</v>
+        <v>56.46875</v>
       </c>
       <c r="E12">
-        <v>56.47</v>
+        <v>62.75</v>
       </c>
       <c r="F12">
-        <v>62.75</v>
+        <v>63.90625</v>
       </c>
       <c r="G12">
-        <v>63.91</v>
+        <v>437.5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
+      <c r="A13">
+        <v>72</v>
       </c>
       <c r="B13">
         <v>72.75</v>
       </c>
       <c r="C13">
-        <v>71.42</v>
+        <v>71.41666666666667</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>77.54166666666667</v>
       </c>
       <c r="E13">
-        <v>77.54000000000001</v>
+        <v>76.29166666666667</v>
       </c>
       <c r="F13">
-        <v>76.29000000000001</v>
+        <v>63.45833333333334</v>
       </c>
       <c r="G13">
-        <v>63.46</v>
+        <v>433.4583333333334</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
+      <c r="A14">
+        <v>77.27551020408163</v>
       </c>
       <c r="B14">
-        <v>73.47</v>
+        <v>73.46938775510205</v>
       </c>
       <c r="C14">
-        <v>59.85</v>
+        <v>59.8469387755102</v>
       </c>
       <c r="D14">
-        <v>77.28</v>
+        <v>55.81632653061224</v>
       </c>
       <c r="E14">
-        <v>55.82</v>
+        <v>63.72448979591837</v>
       </c>
       <c r="F14">
-        <v>63.72</v>
+        <v>71.55102040816327</v>
       </c>
       <c r="G14">
-        <v>71.55</v>
+        <v>401.6836734693878</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
+      <c r="A15">
+        <v>67.25</v>
       </c>
       <c r="B15">
-        <v>74.68000000000001</v>
+        <v>74.67857142857143</v>
       </c>
       <c r="C15">
-        <v>68.81999999999999</v>
+        <v>68.82142857142857</v>
       </c>
       <c r="D15">
-        <v>67.25</v>
+        <v>60.42857142857143</v>
       </c>
       <c r="E15">
-        <v>60.43</v>
+        <v>64.39285714285714</v>
       </c>
       <c r="F15">
-        <v>64.39</v>
+        <v>63.57142857142857</v>
       </c>
       <c r="G15">
-        <v>63.57</v>
+        <v>399.1428571428571</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
+      <c r="A16">
+        <v>70.63157894736842</v>
       </c>
       <c r="B16">
-        <v>71.45999999999999</v>
+        <v>71.45614035087719</v>
       </c>
       <c r="C16">
-        <v>67.68000000000001</v>
+        <v>67.68421052631579</v>
       </c>
       <c r="D16">
-        <v>70.63</v>
+        <v>98.40350877192982</v>
       </c>
       <c r="E16">
-        <v>98.40000000000001</v>
+        <v>86.28070175438596</v>
       </c>
       <c r="F16">
-        <v>86.28</v>
+        <v>81.49122807017544</v>
       </c>
       <c r="G16">
-        <v>81.48999999999999</v>
+        <v>475.9473684210527</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
+      <c r="A17">
+        <v>65.36363636363636</v>
       </c>
       <c r="B17">
-        <v>92.86</v>
+        <v>92.86363636363636</v>
       </c>
       <c r="C17">
-        <v>100.8</v>
+        <v>100.7954545454545</v>
       </c>
       <c r="D17">
-        <v>65.36</v>
+        <v>63.34090909090909</v>
       </c>
       <c r="E17">
-        <v>63.34</v>
+        <v>75.47727272727273</v>
       </c>
       <c r="F17">
-        <v>75.48</v>
+        <v>55.90909090909091</v>
       </c>
       <c r="G17">
-        <v>55.91</v>
+        <v>453.75</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
+      <c r="A18">
+        <v>65.22222222222223</v>
       </c>
       <c r="B18">
-        <v>92.7</v>
+        <v>92.70370370370371</v>
       </c>
       <c r="C18">
-        <v>126.37</v>
+        <v>126.3703703703704</v>
       </c>
       <c r="D18">
-        <v>65.22</v>
+        <v>67.51851851851852</v>
       </c>
       <c r="E18">
-        <v>67.52</v>
+        <v>80.62962962962963</v>
       </c>
       <c r="F18">
-        <v>80.63</v>
+        <v>55.25925925925926</v>
       </c>
       <c r="G18">
-        <v>55.26</v>
+        <v>487.7037037037037</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
+      <c r="A19">
+        <v>72.0625</v>
       </c>
       <c r="B19">
-        <v>74.15000000000001</v>
+        <v>74.15178571428571</v>
       </c>
       <c r="C19">
-        <v>72.95</v>
+        <v>72.94642857142857</v>
       </c>
       <c r="D19">
-        <v>72.06</v>
+        <v>74.8125</v>
       </c>
       <c r="E19">
-        <v>74.81</v>
+        <v>70.51785714285714</v>
       </c>
       <c r="F19">
-        <v>70.52</v>
+        <v>65.96428571428571</v>
       </c>
       <c r="G19">
-        <v>65.95999999999999</v>
+        <v>430.4553571428572</v>
       </c>
     </row>
   </sheetData>
